--- a/Petros/Feedback.xlsx
+++ b/Petros/Feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>Author</t>
   </si>
@@ -49,6 +49,45 @@
   </si>
   <si>
     <t>Documentation Updated</t>
+  </si>
+  <si>
+    <t>5eaf693</t>
+  </si>
+  <si>
+    <t>Product Definition</t>
+  </si>
+  <si>
+    <t>Not Uploaded</t>
+  </si>
+  <si>
+    <t>Complete it and upload it</t>
+  </si>
+  <si>
+    <t>Flow Daigram</t>
+  </si>
+  <si>
+    <t>See First Draft_Block diagram - MK Comments for details</t>
+  </si>
+  <si>
+    <t>This document does not match the guidelines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino Electronic Load </t>
+  </si>
+  <si>
+    <t>File Struture</t>
+  </si>
+  <si>
+    <t>Files from previous design clutter up the folder structure</t>
+  </si>
+  <si>
+    <t>As you add you own files to the folders move the files from the previous design to the Archive folder. This makes it clear which are the active files and make them easier to find</t>
+  </si>
+  <si>
+    <t>Version in file names are not needed because Github hands that</t>
+  </si>
+  <si>
+    <t>Remove the version from the file name</t>
   </si>
 </sst>
 </file>
@@ -58,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,6 +150,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -129,7 +179,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -175,8 +225,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -204,8 +266,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="57">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -228,6 +297,12 @@
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -250,6 +325,12 @@
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -579,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -617,11 +698,13 @@
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" ht="32">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="4"/>
@@ -662,6 +745,76 @@
       </c>
       <c r="F6" s="7" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="48">
+      <c r="A7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:8" ht="32">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Petros/Feedback.xlsx
+++ b/Petros/Feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>Author</t>
   </si>
@@ -88,6 +88,171 @@
   </si>
   <si>
     <t>Remove the version from the file name</t>
+  </si>
+  <si>
+    <t>Product Defintion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"    - Must authomatically interupt intimes of over loading" is a behavior. </t>
+  </si>
+  <si>
+    <t>Add the state and events that this implies to the Behavior description</t>
+  </si>
+  <si>
+    <t>Can you be more specific about what it does</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Overload Interupter" is close but a little unclear. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Controls how much current passes through current sink  //MK" </t>
+  </si>
+  <si>
+    <t>Remove any of my comments that are left over</t>
+  </si>
+  <si>
+    <t xml:space="preserve">" Range: 0 - 2A/ 0-5A" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will you have two ranges or only one? If two how will you switch between them </t>
+  </si>
+  <si>
+    <t>"Max Current: 3A/5A"</t>
+  </si>
+  <si>
+    <t>Same comment as above</t>
+  </si>
+  <si>
+    <t>"SAFETY CHECK  //MK -"</t>
+  </si>
+  <si>
+    <t>Remove my comment</t>
+  </si>
+  <si>
+    <t>"- Interupt the flow of current from the source" 
+??Change states to an ERROR State"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This locks out user fucntionality so it would be best to </t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Initial State: MEASURE AND CHECK</t>
+  </si>
+  <si>
+    <t>Product Characteristcis</t>
+  </si>
+  <si>
+    <t>Feature List</t>
+  </si>
+  <si>
+    <t>Current Sink Driver</t>
+  </si>
+  <si>
+    <t>Current Sink</t>
+  </si>
+  <si>
+    <t>Current sensor</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Receives temperature signal from TEMPERATURE SENSOR 
+            - Sends Turn ON/OFF signal to the fun system based on temperature level
+   - Receives sensed Current from CURRENT SENSOR and sends to COMPUTER
+   - Receives sensed volatage from VOLTAGE SENSOR and sends to COMPUTER
+            - Sends signal to OVERLOAD INTERUPTER to interupt testing operation during overloading</t>
+  </si>
+  <si>
+    <t>Characteristcis list is for the characteristics of the Arduino not its behavior and flows. Those are captured by the flow diagram and the behavior description. The characteristc list is for things like. Speed requirements, I/O requirements etc. This one are good is a good one "
+            - Controlls the normal operation of the testing device "</t>
+  </si>
+  <si>
+    <t>3 LED System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - Red,Yellow and Green LEDs
+            - Green LED indicates normal operation of the loading as specified in the Arduino
+            - Yellow LED indicates a range in which the source is closer to over loading (A range specified in the Arduino)
+   - RED displaying over loading and hence source has been interrupted</t>
+  </si>
+  <si>
+    <t>Good :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial State: SAFETY CHECK  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Better </t>
+  </si>
+  <si>
+    <t>Much easier to read</t>
+  </si>
+  <si>
+    <t>Good Board boundary</t>
+  </si>
+  <si>
+    <t>:)</t>
+  </si>
+  <si>
+    <t>Is the singal that controls the Interrupter the same as the signal the controls the LEDs</t>
+  </si>
+  <si>
+    <t>If not separate them into parallel signals to show that the are different</t>
+  </si>
+  <si>
+    <t>Computer Arduino Wired Signal is only shown and unidirectional</t>
+  </si>
+  <si>
+    <t>The Arduino and the computer communicate in both directions so that should be indicated with a double headed arrow</t>
+  </si>
+  <si>
+    <t>Current flow through current sink still not shown</t>
+  </si>
+  <si>
+    <t>Add it</t>
+  </si>
+  <si>
+    <t>Flow Diagram</t>
+  </si>
+  <si>
+    <t>Major Componnets BOM</t>
+  </si>
+  <si>
+    <t>0a444b4</t>
+  </si>
+  <si>
+    <t>0a444b3</t>
+  </si>
+  <si>
+    <t>I need to know what subset of parts I need to buy so mark them somehow</t>
+  </si>
+  <si>
+    <t>Sub-funcational parts not marked</t>
+  </si>
+  <si>
+    <t>Multiple item in Tolerance field</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Hard to read</t>
+  </si>
+  <si>
+    <t>the multiple tolerance lines make it hard to read and to know if is complete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limit the number of vendors I have to order from. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each one adds shipping cost so limit them as much as you can. I found the Newark part on digikey   AUIRLZ44Z-ND </t>
+  </si>
+  <si>
+    <t>Not all of those are Tolernace related. If you want to track them Make them into a new column instead of a new row. If these are just notes to your self them they can go in your engineers notbook</t>
   </si>
 </sst>
 </file>
@@ -97,7 +262,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,13 +326,24 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -179,7 +355,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -237,8 +413,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -273,8 +467,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="75">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -303,6 +516,15 @@
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -331,6 +553,15 @@
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -660,161 +891,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="9" customWidth="1"/>
-    <col min="4" max="4" width="55" style="10" customWidth="1"/>
-    <col min="5" max="5" width="66.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="26.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="55" style="10" customWidth="1"/>
+    <col min="6" max="6" width="66.5" style="10" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
         <v>42998</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="32">
+      <c r="G2" s="2"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="32">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="G3" s="2"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="G4" s="2"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="6"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="G5" s="2"/>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="D6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="48">
+    <row r="7" spans="1:9" ht="48">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="D7" s="15"/>
+      <c r="E7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" ht="32">
+      <c r="A8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="32">
-      <c r="A8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="12" t="s">
+      <c r="C8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="15"/>
+      <c r="E9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="F10" s="10" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="22" customFormat="1">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" ht="32">
+      <c r="A12" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="32">
+      <c r="A14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="32">
+      <c r="A15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="144">
+      <c r="A17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="112">
+      <c r="A18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="32">
+      <c r="A19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="32">
+      <c r="A20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="32">
+      <c r="A23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="32">
+      <c r="A24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="C26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="48">
+      <c r="E27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="32">
+      <c r="D28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="32">
+      <c r="E29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Petros/Feedback.xlsx
+++ b/Petros/Feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
   <si>
     <t>Author</t>
   </si>
@@ -355,8 +355,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="75">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -487,7 +493,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="75">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -525,6 +531,9 @@
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -562,6 +571,9 @@
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -891,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1333,6 +1345,12 @@
       </c>
     </row>
     <row r="26" spans="1:6">
+      <c r="A26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>64</v>
+      </c>
       <c r="C26" s="9" t="s">
         <v>63</v>
       </c>
@@ -1344,6 +1362,15 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="48">
+      <c r="A27" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="E27" s="10" t="s">
         <v>68</v>
       </c>
@@ -1352,6 +1379,15 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="32">
+      <c r="A28" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="D28" s="10" t="s">
         <v>69</v>
       </c>
@@ -1363,12 +1399,24 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="32">
+      <c r="A29" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="E29" s="10" t="s">
         <v>72</v>
       </c>
       <c r="F29" s="10" t="s">
         <v>73</v>
       </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Petros/Feedback.xlsx
+++ b/Petros/Feedback.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAST BACKUP_DESKTOP\Career Related\Career Enhancement\Engineering Accelarator\Fall-2017\Petros\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="15825" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
   <si>
     <t>Author</t>
   </si>
@@ -97,9 +102,6 @@
   </si>
   <si>
     <t>Add the state and events that this implies to the Behavior description</t>
-  </si>
-  <si>
-    <t>Can you be more specific about what it does</t>
   </si>
   <si>
     <t xml:space="preserve">"Overload Interupter" is close but a little unclear. </t>
@@ -253,6 +255,27 @@
   </si>
   <si>
     <t>Not all of those are Tolernace related. If you want to track them Make them into a new column instead of a new row. If these are just notes to your self them they can go in your engineers notbook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can you be more specific about what it does, </t>
+  </si>
+  <si>
+    <t>Name specifically, like Over load protection, over load switching, over load contol, etc</t>
+  </si>
+  <si>
+    <t>Study the op-amp: Voltage Follower</t>
+  </si>
+  <si>
+    <t>Choose one and focus on that</t>
+  </si>
+  <si>
+    <t>Choose one and focus on that Arduino, like for example: It should have ADC, etc</t>
+  </si>
+  <si>
+    <t>The checking should be bale to make continoulsy</t>
+  </si>
+  <si>
+    <t>Activate the interupter.</t>
   </si>
 </sst>
 </file>
@@ -262,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -332,7 +355,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,6 +365,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,7 +479,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -475,9 +516,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -492,6 +530,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -578,6 +649,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -905,19 +984,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1640625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="10" customWidth="1"/>
     <col min="5" max="5" width="55" style="10" customWidth="1"/>
     <col min="6" max="6" width="66.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="26.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -942,7 +1021,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="32">
+    <row r="3" spans="1:9" ht="33.75">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -953,7 +1032,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -963,7 +1042,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="6"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -984,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>7</v>
@@ -996,7 +1075,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="48">
+    <row r="7" spans="1:9" ht="50.25">
       <c r="A7" s="7" t="s">
         <v>1</v>
       </c>
@@ -1015,7 +1094,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="32">
+    <row r="8" spans="1:9" ht="33.75">
       <c r="A8" s="7" t="s">
         <v>1</v>
       </c>
@@ -1070,352 +1149,390 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="22" customFormat="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="19"/>
-    </row>
-    <row r="12" spans="1:9" ht="32">
-      <c r="A12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="14" t="s">
+    <row r="11" spans="1:9" s="21" customFormat="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" s="26" customFormat="1" ht="34.5">
+      <c r="A12" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" s="26" customFormat="1">
+      <c r="A13" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="26" customFormat="1" ht="34.5">
+      <c r="A14" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="26" customFormat="1" ht="34.5">
+      <c r="A15" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="26" customFormat="1">
+      <c r="A16" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" s="26" customFormat="1" ht="172.5">
+      <c r="A17" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="36" customFormat="1" ht="120.75">
+      <c r="A18" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="34"/>
+    </row>
+    <row r="19" spans="1:7" s="26" customFormat="1" ht="34.5">
+      <c r="A19" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="26" customFormat="1" ht="34.5">
+      <c r="A20" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="36" customFormat="1">
+      <c r="A21" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="34"/>
+    </row>
+    <row r="22" spans="1:7" s="36" customFormat="1">
+      <c r="A22" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="1:7" s="36" customFormat="1" ht="34.5">
+      <c r="A23" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="34"/>
+    </row>
+    <row r="24" spans="1:7" s="36" customFormat="1" ht="34.5">
+      <c r="A24" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="34"/>
+    </row>
+    <row r="25" spans="1:7" s="26" customFormat="1">
+      <c r="A25" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" s="31" customFormat="1" ht="34.5">
+      <c r="A26" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="32">
-      <c r="A14" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="32">
-      <c r="A15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="144">
-      <c r="A17" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="112">
-      <c r="A18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="32">
-      <c r="A19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="32">
-      <c r="A20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="1:7" s="26" customFormat="1" ht="51.75">
+      <c r="A27" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" s="26" customFormat="1" ht="34.5">
+      <c r="A28" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="32">
-      <c r="A23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="D28" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" s="36" customFormat="1" ht="34.5">
+      <c r="A29" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="32">
-      <c r="A24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="48">
-      <c r="A27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="32">
-      <c r="A28" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="10" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="32">
-      <c r="A29" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="34"/>
+    </row>
+    <row r="30" spans="1:7">
       <c r="B30" s="14"/>
     </row>
   </sheetData>

--- a/Petros/Feedback.xlsx
+++ b/Petros/Feedback.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
   <si>
     <t>Author</t>
   </si>
@@ -260,22 +260,58 @@
     <t xml:space="preserve">Can you be more specific about what it does, </t>
   </si>
   <si>
-    <t>Name specifically, like Over load protection, over load switching, over load contol, etc</t>
-  </si>
-  <si>
-    <t>Study the op-amp: Voltage Follower</t>
-  </si>
-  <si>
-    <t>Choose one and focus on that</t>
-  </si>
-  <si>
-    <t>Choose one and focus on that Arduino, like for example: It should have ADC, etc</t>
-  </si>
-  <si>
-    <t>The checking should be bale to make continoulsy</t>
-  </si>
-  <si>
-    <t>Activate the interupter.</t>
+    <t>Turn RED LED on, while turning off GREEN and YELLOW LEDs</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>It was alrady in the Behaviour section under Overload Protection, hence updated</t>
+  </si>
+  <si>
+    <t>Modified as "Overload protction"</t>
+  </si>
+  <si>
+    <t>It wa done for the purpose of more clarity</t>
+  </si>
+  <si>
+    <t>The behavioir of that specific Op-Amp configuration was studied and analysed</t>
+  </si>
+  <si>
+    <t>Comments are removed and "Differntial " control is included</t>
+  </si>
+  <si>
+    <t>One is choosed and decided to be in "0A-5A"</t>
+  </si>
+  <si>
+    <t>It is studied that it is one of improvements which can be done in future stages</t>
+  </si>
+  <si>
+    <t>One is choosed and decided to be in "5A"</t>
+  </si>
+  <si>
+    <t>Based on the comments, major charcterstics of the Arduino are included</t>
+  </si>
+  <si>
+    <t>The mjor components are included</t>
+  </si>
+  <si>
+    <t>Comments removed</t>
+  </si>
+  <si>
+    <t>Activate the overload protection, Change to ERROR state</t>
+  </si>
+  <si>
+    <t>Major components BOM and Full components BOM updated</t>
+  </si>
+  <si>
+    <t>Made into more readable format</t>
+  </si>
+  <si>
+    <t>Tolorance Column is revised and improved for Additional Components BOM</t>
+  </si>
+  <si>
+    <t>Tolorance column is removed from the Major Components BOMt as it is not required  and found more redandant</t>
   </si>
 </sst>
 </file>
@@ -355,7 +391,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,25 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,88 +503,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -984,19 +975,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="55" style="10" customWidth="1"/>
-    <col min="6" max="6" width="66.5" style="10" customWidth="1"/>
-    <col min="7" max="7" width="26.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="55" style="4" customWidth="1"/>
+    <col min="6" max="6" width="66.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="67.125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="67.25" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1014,12 +1007,12 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="6">
         <v>42998</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:9" ht="33.75">
       <c r="A3" s="1" t="s">
@@ -1030,7 +1023,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="4"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="2"/>
@@ -1040,504 +1033,545 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="5"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="6"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="5"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="H6" s="10" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="50.25">
-      <c r="A7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="13" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="33.75">
-      <c r="A8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="10" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="21" customFormat="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:9" s="26" customFormat="1" ht="34.5">
-      <c r="A12" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="23" t="s">
+      <c r="G10" s="19"/>
+      <c r="H10" s="20"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="34.5">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="24"/>
-    </row>
-    <row r="13" spans="1:9" s="26" customFormat="1">
-      <c r="A13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="G12" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G13" s="24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="26" customFormat="1" ht="34.5">
-      <c r="A14" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="G13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="34.5">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="26" customFormat="1" ht="34.5">
-      <c r="A15" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="G14" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="34.5">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="26" customFormat="1">
-      <c r="A16" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="24" t="s">
+      <c r="G15" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7" s="26" customFormat="1" ht="172.5">
-      <c r="A17" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="G16" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="20"/>
+    </row>
+    <row r="17" spans="1:8" ht="172.5">
+      <c r="A17" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G17" s="24" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="36" customFormat="1" ht="120.75">
-      <c r="A18" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C18" s="34" t="s">
+      <c r="G17" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="120.75">
+      <c r="A18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="35" t="s">
+      <c r="E18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="35" t="s">
+      <c r="F18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="34"/>
-    </row>
-    <row r="19" spans="1:7" s="26" customFormat="1" ht="34.5">
-      <c r="A19" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="24" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" ht="34.5">
+      <c r="A19" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="25" t="s">
+      <c r="F19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="26" customFormat="1" ht="34.5">
-      <c r="A20" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="24" t="s">
+      <c r="G19" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" ht="34.5">
+      <c r="A20" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="36" customFormat="1">
-      <c r="A21" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="34" t="s">
+      <c r="G20" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G21" s="34"/>
-    </row>
-    <row r="22" spans="1:7" s="36" customFormat="1">
-      <c r="A22" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C22" s="34" t="s">
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35" t="s">
+      <c r="E22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="34"/>
-    </row>
-    <row r="23" spans="1:7" s="36" customFormat="1" ht="34.5">
-      <c r="A23" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="34" t="s">
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" ht="34.5">
+      <c r="A23" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="F23" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" s="36" customFormat="1" ht="34.5">
-      <c r="A24" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" s="34" t="s">
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" ht="34.5">
+      <c r="A24" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35" t="s">
+      <c r="E24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G24" s="34"/>
-    </row>
-    <row r="25" spans="1:7" s="26" customFormat="1">
-      <c r="A25" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="24" t="s">
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" s="31" customFormat="1" ht="34.5">
-      <c r="A26" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="29" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" ht="34.5">
+      <c r="A26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30" t="s">
+      <c r="E26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" s="26" customFormat="1" ht="51.75">
-      <c r="A27" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="24" t="s">
+      <c r="G26" s="19"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="27" spans="1:8" ht="51.75">
+      <c r="A27" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="1:7" s="26" customFormat="1" ht="34.5">
-      <c r="A28" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="24" t="s">
+      <c r="G27" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="34.5">
+      <c r="A28" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E28" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="24"/>
-    </row>
-    <row r="29" spans="1:7" s="36" customFormat="1" ht="34.5">
-      <c r="A29" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="34" t="s">
+      <c r="G28" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="34.5">
+      <c r="A29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35" t="s">
+      <c r="E29" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F29" s="35" t="s">
+      <c r="F29" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G29" s="34"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="B30" s="14"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="16"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Petros/Feedback.xlsx
+++ b/Petros/Feedback.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FAST BACKUP_DESKTOP\Career Related\Career Enhancement\Engineering Accelarator\Fall-2017\Petros\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="15825" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
   <si>
     <t>Author</t>
   </si>
@@ -312,6 +307,88 @@
   </si>
   <si>
     <t>Tolorance column is removed from the Major Components BOMt as it is not required  and found more redandant</t>
+  </si>
+  <si>
+    <t>b2c46de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow Diagram </t>
+  </si>
+  <si>
+    <t>Looks Great!</t>
+  </si>
+  <si>
+    <t>There stil are some issues with this. I think I have been a little unclaer about this so we should meet so I can explain things better</t>
+  </si>
+  <si>
+    <t>Hardware Block Diagram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General </t>
+  </si>
+  <si>
+    <t>Old version are cluttering up the folder structure</t>
+  </si>
+  <si>
+    <t>remove all old versions and put them in the Archive Folder</t>
+  </si>
+  <si>
+    <t>In some blocks the text doubled up</t>
+  </si>
+  <si>
+    <t>Remove extra text</t>
+  </si>
+  <si>
+    <t>Arduino block is small which clutters up the signals</t>
+  </si>
+  <si>
+    <t>match the Flow Diagram Block structure</t>
+  </si>
+  <si>
+    <t>Device under test block should outside the device boundary</t>
+  </si>
+  <si>
+    <t>The connectors are acceible by the user so as per the Visual Grammar it should be inside the boundary but touch it</t>
+  </si>
+  <si>
+    <t>Major Components BOM</t>
+  </si>
+  <si>
+    <t>Munch Cleaner :)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gray lines between items is unncessary </t>
+  </si>
+  <si>
+    <t>you can remove them</t>
+  </si>
+  <si>
+    <t>Add them</t>
+  </si>
+  <si>
+    <t>Missing manufactureer and MFG part number for NTR4003NT1GOSCT-ND?</t>
+  </si>
+  <si>
+    <t>Full BOM</t>
+  </si>
+  <si>
+    <t>Great collection of information!</t>
+  </si>
+  <si>
+    <t>Should be in the Realization folder</t>
+  </si>
+  <si>
+    <t>It is part of the Manufacturing package so it should be part of the Realziation folder not the Architecture folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voltage Reference and Heat Sink and 
+Bidirectional Current/Power Monitor with I2C Interface are part of the major components BOM even if they are not part of the sub-functional </t>
+  </si>
+  <si>
+    <t>move them to the Major components BOM. Mark the subfunctional parts in another way</t>
+  </si>
+  <si>
+    <t>To be complete the Full BOM is generated from the schematic. We can talk about how to enter the information when we meet.</t>
   </si>
 </sst>
 </file>
@@ -321,7 +398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,7 +468,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +487,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -420,7 +503,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -502,8 +585,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -554,8 +669,20 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -596,6 +723,22 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -636,6 +779,22 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -973,22 +1132,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="73" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="55" style="4" customWidth="1"/>
     <col min="6" max="6" width="66.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="67.125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="67.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="67.1640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="67.1640625" style="5" customWidth="1"/>
     <col min="9" max="16384" width="11" style="5"/>
   </cols>
   <sheetData>
@@ -1014,7 +1173,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="33.75">
+    <row r="3" spans="1:9" ht="32">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1025,7 +1184,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1035,7 +1194,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9">
       <c r="A5" s="9"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1071,7 +1230,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="50.25">
+    <row r="7" spans="1:9" ht="48">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -1091,7 +1250,7 @@
       <c r="G7" s="18"/>
       <c r="H7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="33.75">
+    <row r="8" spans="1:9" ht="32">
       <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
@@ -1151,14 +1310,16 @@
       <c r="G10" s="19"/>
       <c r="H10" s="20"/>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="10"/>
-      <c r="B11" s="12"/>
-      <c r="D11" s="14"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-    </row>
-    <row r="12" spans="1:9" ht="34.5">
+    <row r="11" spans="1:9" s="27" customFormat="1">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" ht="32">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -1210,7 +1371,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="34.5">
+    <row r="14" spans="1:9" ht="32">
       <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
@@ -1236,7 +1397,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="34.5">
+    <row r="15" spans="1:9" ht="32">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -1286,7 +1447,7 @@
       </c>
       <c r="H16" s="20"/>
     </row>
-    <row r="17" spans="1:8" ht="172.5">
+    <row r="17" spans="1:8" ht="144">
       <c r="A17" s="10" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1473,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="120.75">
+    <row r="18" spans="1:8" ht="112">
       <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1495,7 @@
       <c r="G18" s="19"/>
       <c r="H18" s="20"/>
     </row>
-    <row r="19" spans="1:8" ht="34.5">
+    <row r="19" spans="1:8" ht="32">
       <c r="A19" s="10" t="s">
         <v>1</v>
       </c>
@@ -1358,7 +1519,7 @@
       </c>
       <c r="H19" s="20"/>
     </row>
-    <row r="20" spans="1:8" ht="34.5">
+    <row r="20" spans="1:8" ht="32">
       <c r="A20" s="10" t="s">
         <v>1</v>
       </c>
@@ -1420,7 +1581,7 @@
       <c r="G22" s="19"/>
       <c r="H22" s="20"/>
     </row>
-    <row r="23" spans="1:8" ht="34.5">
+    <row r="23" spans="1:8" ht="32">
       <c r="A23" s="10" t="s">
         <v>1</v>
       </c>
@@ -1439,7 +1600,7 @@
       <c r="G23" s="19"/>
       <c r="H23" s="20"/>
     </row>
-    <row r="24" spans="1:8" ht="34.5">
+    <row r="24" spans="1:8" ht="32">
       <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +1638,7 @@
       <c r="G25" s="19"/>
       <c r="H25" s="20"/>
     </row>
-    <row r="26" spans="1:8" ht="34.5">
+    <row r="26" spans="1:8">
       <c r="A26" s="10" t="s">
         <v>1</v>
       </c>
@@ -1496,7 +1657,7 @@
       <c r="G26" s="19"/>
       <c r="H26" s="20"/>
     </row>
-    <row r="27" spans="1:8" ht="51.75">
+    <row r="27" spans="1:8" ht="48">
       <c r="A27" s="10" t="s">
         <v>1</v>
       </c>
@@ -1519,7 +1680,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="34.5">
+    <row r="28" spans="1:8" ht="32">
       <c r="A28" s="10" t="s">
         <v>1</v>
       </c>
@@ -1545,7 +1706,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="34.5">
+    <row r="29" spans="1:8" ht="32">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
@@ -1564,14 +1725,226 @@
       <c r="G29" s="19"/>
       <c r="H29" s="20"/>
     </row>
-    <row r="30" spans="1:8">
-      <c r="B30" s="16"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="20"/>
+    <row r="30" spans="1:8" s="27" customFormat="1">
+      <c r="A30" s="22"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:8" customFormat="1">
+      <c r="A31" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:6" ht="32">
+      <c r="A33" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="32">
+      <c r="A36" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="32">
+      <c r="A39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="32">
+      <c r="A41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="32">
+      <c r="A42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="64">
+      <c r="A43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Petros/Feedback.xlsx
+++ b/Petros/Feedback.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="130">
   <si>
     <t>Author</t>
   </si>
@@ -389,6 +389,36 @@
   </si>
   <si>
     <t>To be complete the Full BOM is generated from the schematic. We can talk about how to enter the information when we meet.</t>
+  </si>
+  <si>
+    <t>e020ca6</t>
+  </si>
+  <si>
+    <t>Product Definition.txt</t>
+  </si>
+  <si>
+    <t>State Machine still needs work</t>
+  </si>
+  <si>
+    <t>Lets go over this when we meet</t>
+  </si>
+  <si>
+    <t>out of date pdf make it confusing. It is hard to figure out which file I should be looking at</t>
+  </si>
+  <si>
+    <t>Move old versions to the Archive Folder</t>
+  </si>
+  <si>
+    <t>Overwriten text remains</t>
+  </si>
+  <si>
+    <t>Let me check this on your computer. I want to make sure the file is displaying correctly</t>
+  </si>
+  <si>
+    <t>Missing on boarder</t>
+  </si>
+  <si>
+    <t>This is great just update the missing borders so they match. If you do not the reader will wonder why it is different</t>
   </si>
 </sst>
 </file>
@@ -503,8 +533,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -682,7 +716,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="117">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -739,6 +773,8 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -795,6 +831,8 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1132,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="73" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="73" zoomScaleNormal="73" zoomScalePageLayoutView="73" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -1767,7 +1805,7 @@
       <c r="G32" s="19"/>
       <c r="H32" s="20"/>
     </row>
-    <row r="33" spans="1:6" ht="32">
+    <row r="33" spans="1:7" ht="32">
       <c r="A33" s="10" t="s">
         <v>1</v>
       </c>
@@ -1781,7 +1819,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" s="10" t="s">
         <v>1</v>
       </c>
@@ -1798,7 +1836,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35" s="10" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1853,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="32">
+    <row r="36" spans="1:7" ht="32">
       <c r="A36" s="10" t="s">
         <v>1</v>
       </c>
@@ -1832,7 +1870,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" s="10" t="s">
         <v>1</v>
       </c>
@@ -1846,7 +1884,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
@@ -1863,7 +1901,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="32">
+    <row r="39" spans="1:7" ht="32">
       <c r="A39" s="10" t="s">
         <v>1</v>
       </c>
@@ -1880,7 +1918,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" s="10" t="s">
         <v>1</v>
       </c>
@@ -1894,7 +1932,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="32">
+    <row r="41" spans="1:7" ht="32">
       <c r="A41" s="10" t="s">
         <v>1</v>
       </c>
@@ -1908,7 +1946,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="32">
+    <row r="42" spans="1:7" ht="32">
       <c r="A42" s="10" t="s">
         <v>1</v>
       </c>
@@ -1925,7 +1963,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="64">
+    <row r="43" spans="1:7" ht="64">
       <c r="A43" s="10" t="s">
         <v>1</v>
       </c>
@@ -1940,6 +1978,62 @@
       </c>
       <c r="F43" s="4" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="27" customFormat="1">
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="32">
+      <c r="C46" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="32">
+      <c r="C47" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="32">
+      <c r="C48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
